--- a/result_table_templates/MultiPulse_FIcurve.xlsx
+++ b/result_table_templates/MultiPulse_FIcurve.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gregschwartz/matlab/DJ_schwartzlab/result_table_templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BEBC13A-339C-8E44-9293-1A2ACF4F335E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF6AAE4E-BF19-9746-9AE0-3DD38988B941}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23740" yWindow="600" windowWidth="22040" windowHeight="26260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/result_table_templates/MultiPulse_FIcurve.xlsx
+++ b/result_table_templates/MultiPulse_FIcurve.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gregschwartz/matlab/DJ_schwartzlab/result_table_templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF6AAE4E-BF19-9746-9AE0-3DD38988B941}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D4B9C42-1AB6-7445-B6B0-A83D34D24CC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23740" yWindow="600" windowWidth="22040" windowHeight="26260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -70,16 +70,16 @@
     <t>vector with how many trials for each injection size</t>
   </si>
   <si>
-    <t>FR_per_current_mean</t>
-  </si>
-  <si>
     <t>mean firing rate (Hz) for each current injection</t>
   </si>
   <si>
     <t>sem of firing rate (Hz) for each current injection</t>
   </si>
   <si>
-    <t>FR_per_current_sem</t>
+    <t>fr_per_current_mean</t>
+  </si>
+  <si>
+    <t>fr_per_current_sem</t>
   </si>
 </sst>
 </file>
@@ -437,7 +437,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -514,14 +514,14 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>16</v>
+      <c r="A7" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -532,7 +532,7 @@
         <v>9</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/result_table_templates/MultiPulse_FIcurve.xlsx
+++ b/result_table_templates/MultiPulse_FIcurve.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gregschwartz/matlab/DJ_schwartzlab/result_table_templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D4B9C42-1AB6-7445-B6B0-A83D34D24CC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB377EFE-0B52-384E-8DB2-2251DD1FD5F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23740" yWindow="600" windowWidth="22040" windowHeight="26260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="23">
   <si>
     <t>Field</t>
   </si>
@@ -80,6 +80,15 @@
   </si>
   <si>
     <t>fr_per_current_sem</t>
+  </si>
+  <si>
+    <t>stim_time_s</t>
+  </si>
+  <si>
+    <t>double</t>
+  </si>
+  <si>
+    <t>stimulus time (s)</t>
   </si>
 </sst>
 </file>
@@ -434,10 +443,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -535,6 +544,17 @@
         <v>17</v>
       </c>
     </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/result_table_templates/MultiPulse_FIcurve.xlsx
+++ b/result_table_templates/MultiPulse_FIcurve.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gregschwartz/matlab/DJ_schwartzlab/result_table_templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB377EFE-0B52-384E-8DB2-2251DD1FD5F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1632FA9E-285F-6741-8DF2-B753E25E1F94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23740" yWindow="600" windowWidth="22040" windowHeight="26260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -446,7 +446,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -557,5 +557,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>